--- a/Project/Teams.xlsx
+++ b/Project/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46087A01-12D1-435D-948D-A32FCDD02C05}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B0A280-0660-4A0A-BA86-680270FC31E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A85597E9-8C3D-4B51-A7A2-4BA28342616E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>S.No.</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>Vishnu Subramanya</t>
+  </si>
+  <si>
+    <t>Ankit Kumar</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -223,11 +226,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -236,6 +276,60 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,8 +646,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C970F161-DE83-4ADF-979A-704487260880}">
   <dimension ref="B3:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F30" sqref="F30:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -562,7 +659,7 @@
     <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.21875" customWidth="1"/>
-    <col min="6" max="6" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -593,7 +690,9 @@
         <v>1</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="20" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
@@ -606,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
@@ -619,7 +718,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -632,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="F7" s="21"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
@@ -645,7 +744,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="F8" s="22"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
@@ -658,7 +757,9 @@
         <v>2</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="17" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
@@ -671,7 +772,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
@@ -684,7 +785,7 @@
         <v>2</v>
       </c>
       <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -697,7 +798,7 @@
         <v>2</v>
       </c>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -710,7 +811,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="19"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
@@ -723,7 +824,9 @@
         <v>3</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B15" s="4">
@@ -736,7 +839,7 @@
         <v>3</v>
       </c>
       <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
@@ -749,7 +852,7 @@
         <v>3</v>
       </c>
       <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
@@ -762,7 +865,7 @@
         <v>3</v>
       </c>
       <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
@@ -775,7 +878,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
@@ -788,7 +891,9 @@
         <v>4</v>
       </c>
       <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="14" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="5">
@@ -801,7 +906,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="15"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
@@ -814,7 +919,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
@@ -827,7 +932,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="15"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
@@ -840,7 +945,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
@@ -853,7 +958,9 @@
         <v>5</v>
       </c>
       <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
+      <c r="F24" s="8" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="6">
@@ -866,7 +973,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
@@ -879,7 +986,7 @@
         <v>5</v>
       </c>
       <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
+      <c r="F26" s="9"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
@@ -892,7 +999,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
@@ -905,7 +1012,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
@@ -918,7 +1025,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
@@ -931,7 +1038,9 @@
         <v>6</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="F30" s="23" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="7">
@@ -944,7 +1053,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+      <c r="F31" s="24"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
@@ -957,7 +1066,7 @@
         <v>6</v>
       </c>
       <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="F32" s="24"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
@@ -970,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
@@ -983,12 +1092,20 @@
         <v>6</v>
       </c>
       <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
+      <c r="F34" s="25"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:D34">
     <sortCondition ref="D4:D34"/>
   </sortState>
+  <mergeCells count="6">
+    <mergeCell ref="F24:F29"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="F19:F23"/>
+    <mergeCell ref="F9:F13"/>
+    <mergeCell ref="F4:F8"/>
+    <mergeCell ref="F30:F34"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Project/Teams.xlsx
+++ b/Project/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8B0A280-0660-4A0A-BA86-680270FC31E6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB560DAE-3015-45E0-B2B9-3603B7215F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A85597E9-8C3D-4B51-A7A2-4BA28342616E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>S.No.</t>
   </si>
@@ -136,6 +136,21 @@
   </si>
   <si>
     <t>Ankit Kumar</t>
+  </si>
+  <si>
+    <t>Event Management System</t>
+  </si>
+  <si>
+    <t>Movie Review System</t>
+  </si>
+  <si>
+    <t>Tour Guide System</t>
+  </si>
+  <si>
+    <t>e-Commerce Website</t>
+  </si>
+  <si>
+    <t>Turf Booking System</t>
   </si>
 </sst>
 </file>
@@ -276,6 +291,51 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="45"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
@@ -283,51 +343,6 @@
       <alignment horizontal="center" textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="45"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="45"/>
     </xf>
   </cellXfs>
@@ -647,10 +662,10 @@
   <dimension ref="B3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F30" sqref="F30:F34"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -689,8 +704,10 @@
       <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -704,8 +721,8 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="21"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
@@ -717,8 +734,8 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="21"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
@@ -730,8 +747,8 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="21"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2">
@@ -743,8 +760,8 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
@@ -756,8 +773,8 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="17" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
         <v>6</v>
       </c>
     </row>
@@ -771,8 +788,8 @@
       <c r="D10" s="3">
         <v>2</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="18"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
@@ -784,8 +801,8 @@
       <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="18"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
@@ -797,8 +814,8 @@
       <c r="D12" s="3">
         <v>2</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="18"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
@@ -810,8 +827,8 @@
       <c r="D13" s="3">
         <v>2</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="19"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B14" s="4">
@@ -823,8 +840,10 @@
       <c r="D14" s="4">
         <v>3</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="11" t="s">
+      <c r="E14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="17" t="s">
         <v>36</v>
       </c>
     </row>
@@ -838,8 +857,8 @@
       <c r="D15" s="4">
         <v>3</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B16" s="4">
@@ -851,8 +870,8 @@
       <c r="D16" s="4">
         <v>3</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B17" s="4">
@@ -864,8 +883,8 @@
       <c r="D17" s="4">
         <v>3</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="12"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="4">
@@ -877,8 +896,8 @@
       <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="5">
@@ -890,8 +909,10 @@
       <c r="D19" s="5">
         <v>4</v>
       </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>9</v>
       </c>
     </row>
@@ -905,8 +926,8 @@
       <c r="D20" s="5">
         <v>4</v>
       </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="15"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="5">
@@ -918,8 +939,8 @@
       <c r="D21" s="5">
         <v>4</v>
       </c>
-      <c r="E21" s="5"/>
-      <c r="F21" s="15"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="5">
@@ -931,8 +952,8 @@
       <c r="D22" s="5">
         <v>4</v>
       </c>
-      <c r="E22" s="5"/>
-      <c r="F22" s="15"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="5">
@@ -944,8 +965,8 @@
       <c r="D23" s="5">
         <v>4</v>
       </c>
-      <c r="E23" s="5"/>
-      <c r="F23" s="16"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="6">
@@ -957,8 +978,10 @@
       <c r="D24" s="6">
         <v>5</v>
       </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -972,8 +995,8 @@
       <c r="D25" s="6">
         <v>5</v>
       </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="6">
@@ -985,8 +1008,8 @@
       <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="9"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="6">
@@ -998,8 +1021,8 @@
       <c r="D27" s="6">
         <v>5</v>
       </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="6">
@@ -1011,8 +1034,8 @@
       <c r="D28" s="6">
         <v>5</v>
       </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="9"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="6">
@@ -1024,8 +1047,8 @@
       <c r="D29" s="6">
         <v>5</v>
       </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="7">
@@ -1037,8 +1060,10 @@
       <c r="D30" s="7">
         <v>6</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="23" t="s">
+      <c r="E30" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1052,8 +1077,8 @@
       <c r="D31" s="7">
         <v>6</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="24"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="7">
@@ -1065,8 +1090,8 @@
       <c r="D32" s="7">
         <v>6</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="24"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="7">
@@ -1078,8 +1103,8 @@
       <c r="D33" s="7">
         <v>6</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="24"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="7">
@@ -1091,20 +1116,26 @@
       <c r="D34" s="7">
         <v>6</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="25"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C4:D34">
     <sortCondition ref="D4:D34"/>
   </sortState>
-  <mergeCells count="6">
+  <mergeCells count="12">
+    <mergeCell ref="E9:E13"/>
+    <mergeCell ref="E4:E8"/>
+    <mergeCell ref="F30:F34"/>
+    <mergeCell ref="E14:E18"/>
+    <mergeCell ref="E19:E23"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="E30:E34"/>
     <mergeCell ref="F24:F29"/>
     <mergeCell ref="F14:F18"/>
     <mergeCell ref="F19:F23"/>
     <mergeCell ref="F9:F13"/>
     <mergeCell ref="F4:F8"/>
-    <mergeCell ref="F30:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Project/Teams.xlsx
+++ b/Project/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB560DAE-3015-45E0-B2B9-3603B7215F86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B063F4-F8E5-4977-8262-EBB7F19FF77F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A85597E9-8C3D-4B51-A7A2-4BA28342616E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>S.No.</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>Turf Booking System</t>
+  </si>
+  <si>
+    <t>Gym Membership &amp; Scheduling</t>
   </si>
 </sst>
 </file>
@@ -665,7 +668,7 @@
       <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E9" sqref="E9:E13"/>
+      <selection pane="bottomRight" activeCell="E14" sqref="E14:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +776,9 @@
       <c r="D9" s="3">
         <v>2</v>
       </c>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F9" s="8" t="s">
         <v>6</v>
       </c>

--- a/Project/Teams.xlsx
+++ b/Project/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16B063F4-F8E5-4977-8262-EBB7F19FF77F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9346F5B0-68D2-48DE-A9B4-C8EBFFB606C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A85597E9-8C3D-4B51-A7A2-4BA28342616E}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Movie Review System</t>
   </si>
   <si>
-    <t>Tour Guide System</t>
-  </si>
-  <si>
     <t>e-Commerce Website</t>
   </si>
   <si>
@@ -154,6 +151,9 @@
   </si>
   <si>
     <t>Gym Membership &amp; Scheduling</t>
+  </si>
+  <si>
+    <t>Food Ordering System</t>
   </si>
 </sst>
 </file>
@@ -665,10 +665,10 @@
   <dimension ref="B3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E14" sqref="E14:E18"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -777,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>6</v>
@@ -846,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>36</v>
@@ -915,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="20" t="s">
         <v>9</v>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F24" s="23" t="s">
         <v>14</v>

--- a/Project/Teams.xlsx
+++ b/Project/Teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Jag\Empower\2024\all\Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9346F5B0-68D2-48DE-A9B4-C8EBFFB606C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B0FB66-02C7-42B0-AF5E-8814BE906FA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{A85597E9-8C3D-4B51-A7A2-4BA28342616E}"/>
   </bookViews>
@@ -665,10 +665,10 @@
   <dimension ref="B3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="E24" sqref="E24:E29"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,7 +680,7 @@
     <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
